--- a/public/master_member/MemberKYU.xlsx
+++ b/public/master_member/MemberKYU.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:v2="http://schemas.openxmlformats.org/spreadsheetml/2006/main/v2" mc:Ignorable="v2">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author> </author>
   </authors>
@@ -40,27 +40,6 @@
 ======</t>
         </r>
       </text>
-      <mc:AlternateContent>
-        <mc:Choice Requires="v2">
-          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="top">
-            <anchor moveWithCells="false" sizeWithCells="false">
-              <xdr:from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>15</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>14</xdr:rowOff>
-              </xdr:from>
-              <xdr:to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>32</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>3</xdr:rowOff>
-              </xdr:to>
-            </anchor>
-          </commentPr>
-        </mc:Choice>
-        <mc:Fallback/>
-      </mc:AlternateContent>
     </comment>
     <comment ref="I25" authorId="0">
       <text>
@@ -77,27 +56,6 @@
 ======</t>
         </r>
       </text>
-      <mc:AlternateContent>
-        <mc:Choice Requires="v2">
-          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="top">
-            <anchor moveWithCells="false" sizeWithCells="false">
-              <xdr:from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>15</xdr:colOff>
-                <xdr:row>24</xdr:row>
-                <xdr:rowOff>35</xdr:rowOff>
-              </xdr:from>
-              <xdr:to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>43</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>12</xdr:rowOff>
-              </xdr:to>
-            </anchor>
-          </commentPr>
-        </mc:Choice>
-        <mc:Fallback/>
-      </mc:AlternateContent>
     </comment>
     <comment ref="N26" authorId="0">
       <text>
@@ -113,34 +71,13 @@
 ======</t>
         </r>
       </text>
-      <mc:AlternateContent>
-        <mc:Choice Requires="v2">
-          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="top">
-            <anchor moveWithCells="false" sizeWithCells="false">
-              <xdr:from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>15</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>35</xdr:rowOff>
-              </xdr:from>
-              <xdr:to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>19</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>2</xdr:rowOff>
-              </xdr:to>
-            </anchor>
-          </commentPr>
-        </mc:Choice>
-        <mc:Fallback/>
-      </mc:AlternateContent>
     </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="667">
   <si>
     <t xml:space="preserve">Andreiku Lelonu</t>
   </si>
@@ -637,6 +574,651 @@
     <t xml:space="preserve">innocenziolouis</t>
   </si>
   <si>
+    <t xml:space="preserve">Jap David Arief Soewondo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jap David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arifdavid67@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rejosari Tengah 2 no3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jap David Arief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multimedia, Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason Brilly Karunia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brillyjasonks@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl pandan wangi raya A no 19 Semarang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jasnbrilly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publikasi (Design Flyer &amp; Poster), Event Organizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonathan Ricky Haryanto T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jonathanricky237@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Pedurungan Baru III no 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jonathanricky27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WL / Worship Leader, Gitarist, Piano, Keyboardist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joshua Steven Hans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stevenhans10@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl.Badak 1 No. 67 Semarang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Badak 1 No. 67 Semarang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">081578454488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singer, Penyambutan &amp; Kolektan, Multimedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josef Ardian Soetjipto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">takeda21yuki@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jln krakatau raya 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black_moon_art</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publikasi (Design Flyer &amp; Poster)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Orlando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kevinorlando5758@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agung 42, Gajahmungkur, Semarang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kevinorlandoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurniawan Eka Chandra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kurniawanxig@mail.ugm.ac.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kediri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Rejosari Tengah II no. 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@kurniawan.paw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuliah, organisasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singer, Publikasi (Design Flyer &amp; Poster)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levin Kusuma Adiatma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">levinkusuma@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Cendrawasih Selatan 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@levinkusuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lg ga di Smg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marseli Kandou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marsel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marselikandou@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalan cemara raya nomor 55 banyumanik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6281228078883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim Visit (perkunjungan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marteen Christian Widanto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hwe-Hwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17d10043@student.unika.ac.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graha padma tmn magnolia a5/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graha padma tmn magnilia a5/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08122864296 (wa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maaarteeenjr06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mikhael Aditya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mumun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mikhweladitya007@gmail.con</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonodri Krajan Buntu 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Griya Malangsari Indah No 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">087821484442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Tri Ardianto Wijaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Tri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">michaeltri300@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl.Jagalan Timur no 214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semarang, Jawa Tengah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0895360280208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">michaeltri_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicholas Jozef Audrey Wiraputra Tahapary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rere/Njo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jozefnicholas1410@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tambak Mas Timur CM 142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">njo1410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singer, Drummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathanael Ryan C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nathanaelryan34@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surtikanti Raya no. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalan cendana no 3, salatiga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nat_ael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oei Marcell Setiawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marcelsetiawan56@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalan Murti Saphira 4/532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oei_marcelll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuliah dan kerja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gitarist, Multimedia, Sound System, Dekorasi, Event Organizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paulus Hadi Wijaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obelus88@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JL Puri Anjasmoro A6/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singer, Gitarist, Bassist, Penyambutan &amp; Kolektan, Multimedia, Sound System, Tim Visit (perkunjungan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pieter Theodorus Handoko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">theoalpha9@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kemuning 3 no. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. kemuning 3 no 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">081575884396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@theoalpha9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bptis Sidi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multimedia, Dekorasi, Tim Visit (perkunjungan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratama Nugraha Fanjaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pratama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pratxz@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selomas raya b20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piinitial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael Anthonio Nanda S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apentul.18@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Karangwulan Sari II No. 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08976209018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael anthonio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piano, Keyboardist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rei Benedict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reibenedict@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Januari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rejosari IV / 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reibenedict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sidi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tidak Ada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhesa Widagdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dagdodrumchannel@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citandui Raya no 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rhesadagdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samuel Kurniawan Santoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samuelkurniawan0@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kendal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl.Randusari Pos 2 No. 376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">083838905666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sm_kurniawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santoso Wijaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wijayasantoso508@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugangan Dalam C no. 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugangan dalam c no 87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">088233088018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penyambutan &amp; Kolektan, Dekorasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefano Alexander Pribadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jasonstefanoalexander@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Bukit Arta no. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fano_alexander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">belum bersedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steven Susanto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steven230391@gmail.con</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Gang Tengah 65 Semarang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87832345535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steven.susanto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simeon Bensona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sbensona77@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalan Kolonel Sugiono 62 Purwodadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Kolonel Sugiono 62 Purwodadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6285877679106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bensonsimeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publikasi (Design Flyer &amp; Poster), Dekorasi, Event Organizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The, Rizky Aji Saputra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rizky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rizky.aji1203@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalan Kemuning III no 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08974749599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_therizky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singer, Bassist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tan, Elvin Octavius Santoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joshua Elvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joshuasantoso225@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oktober</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Parang Kesit VII No. 23 Tlogosari Kulon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera, Event Organizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timothy Satriya Budiono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timothy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timothysatriya@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Sidorejo No.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timothysatriya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multimedia, Sound System, Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vincent Octavian Siswoyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vincent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voctavian94@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">halmahera raya no. 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semarang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@voctavian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yohanes Dwi Prasetyo Nugroho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yohanesdwi22@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kebumen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kentangan Barat 1 No 263 Jagalan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@yohanesdwi_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yohanes kurniawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yohaneskurniawan26@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banjarsari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yokomoto_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jemaat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yulius Steven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stvnacil@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jagalan tengah 523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stvnacil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WL / Worship Leader, Drummer, Bassist, Penyambutan &amp; Kolektan, Multimedia, Sound System, Camera, Dekorasi, Tim Visit (perkunjungan), Event Organizer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aileen Bella Sanjaya </t>
   </si>
   <si>
@@ -658,9 +1240,6 @@
     <t xml:space="preserve">aileenbella19</t>
   </si>
   <si>
-    <t xml:space="preserve">Sidi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Singer, WL / Worship Leader, Piano, Keyboardist, Tim Visit (perkunjungan), Event Organizer</t>
   </si>
   <si>
@@ -679,9 +1258,6 @@
     <t xml:space="preserve">Aimeefang_</t>
   </si>
   <si>
-    <t xml:space="preserve">Publikasi (Design Flyer &amp; Poster)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anita Caroline Susanto</t>
   </si>
   <si>
@@ -748,9 +1324,6 @@
     <t xml:space="preserve">benitalivia06@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Oktober</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jl. Puspanjolo dalam VIII no 34 Rt/ Rw 006/001 Bojongsalamam, Semarang Barat</t>
   </si>
   <si>
@@ -835,9 +1408,6 @@
     <t xml:space="preserve">esterinatrijayanti@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Januari</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jl. Kemuning 2 No. 10/11</t>
   </si>
   <si>
@@ -955,9 +1525,6 @@
     <t xml:space="preserve">graciellams38@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Juni</t>
-  </si>
-  <si>
     <t xml:space="preserve">Halmahera raya 44</t>
   </si>
   <si>
@@ -1027,9 +1594,6 @@
     <t xml:space="preserve">juliettaengelbertha@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Tambak Mas Timur CM 142</t>
-  </si>
-  <si>
     <t xml:space="preserve">081391593307</t>
   </si>
   <si>
@@ -1223,9 +1787,6 @@
   </si>
   <si>
     <t xml:space="preserve">ellachandra42@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kediri</t>
   </si>
   <si>
     <t xml:space="preserve">Jalan Rejosari Tengah II no.24</t>
@@ -1531,14 +2092,15 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="d\-mmm\-yy"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
   <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1593,12 +2155,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -1627,28 +2196,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1672,6 +2241,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1680,11 +2253,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1705,30 +2278,50 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1736,12 +2329,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1761,13 +2354,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:S24"/>
+  <dimension ref="A2:S57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -1957,11 +2550,11 @@
       <c r="N5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -2003,7 +2596,7 @@
       <c r="M6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="14" t="s">
         <v>43</v>
       </c>
       <c r="O6" s="10"/>
@@ -2016,7 +2609,7 @@
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2055,7 +2648,7 @@
       <c r="N7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="15"/>
+      <c r="O7" s="16"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
@@ -2160,49 +2753,49 @@
       <c r="S9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="16" t="n">
+      <c r="D10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="16" t="n">
+      <c r="G10" s="17" t="n">
         <v>1998</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="17" t="n">
+      <c r="J10" s="18" t="n">
         <v>87778904742</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="R10" s="17"/>
+      <c r="R10" s="18"/>
       <c r="S10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2245,7 +2838,7 @@
       <c r="M11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="14" t="s">
         <v>82</v>
       </c>
       <c r="O11" s="10"/>
@@ -2294,10 +2887,10 @@
       <c r="M12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="O12" s="18"/>
+      <c r="O12" s="19"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -2341,7 +2934,7 @@
         <v>17</v>
       </c>
       <c r="M13" s="1"/>
-      <c r="N13" s="13" t="s">
+      <c r="N13" s="14" t="s">
         <v>75</v>
       </c>
       <c r="O13" s="10"/>
@@ -2440,17 +3033,17 @@
       <c r="N15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O15" s="1"/>
+      <c r="O15" s="20"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="22" t="s">
         <v>110</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2582,20 +3175,20 @@
       <c r="M18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="13" t="s">
+      <c r="N18" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>131</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2634,7 +3227,7 @@
       <c r="N19" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O19" s="15"/>
+      <c r="O19" s="16"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
@@ -2690,10 +3283,10 @@
       <c r="S20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="22" t="s">
         <v>144</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2730,17 +3323,17 @@
       <c r="N21" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="O21" s="1"/>
+      <c r="O21" s="20"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="22" t="s">
         <v>150</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2776,20 +3369,20 @@
       <c r="M22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N22" s="13" t="s">
+      <c r="N22" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="O22" s="15"/>
+      <c r="O22" s="16"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="22" t="s">
         <v>156</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2872,18 +3465,1458 @@
       <c r="M24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N24" s="13" t="s">
+      <c r="N24" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="O24" s="15"/>
+      <c r="O24" s="16"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
     </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>1991</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>85643538336</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>2002</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>85604324713</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="22" t="n">
+        <v>7</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="22" t="n">
+        <v>1999</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>81818953489</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>1997</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>88802432167</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="17" t="n">
+        <v>1998</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J30" s="9" t="n">
+        <v>85740736896</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>2002</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>81395300063</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>1993</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>81914568585</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>1981</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="22" t="n">
+        <v>1999</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>1997</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>2003</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="4" t="n">
+        <v>2001</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>81270746951</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="17" t="n">
+        <v>9</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="17" t="n">
+        <v>1994</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="J38" s="18" t="n">
+        <v>81914455658</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>2003</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <v>81229756845</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>1990</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <v>81225225885</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>1998</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M41" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>1991</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <v>81252880527</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>1999</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="G44" s="17" t="n">
+        <v>1994</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>81217775117</v>
+      </c>
+      <c r="K44" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>1994</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="1" t="n">
+        <v>83842549755</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="J46" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="L46" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M46" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>1991</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K47" s="14"/>
+      <c r="L47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="22" t="n">
+        <v>1992</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="J48" s="18" t="n">
+        <v>8174150149</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="L48" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="23" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="J49" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>1998</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N50" s="14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>2003</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>1998</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J52" s="21" t="n">
+        <v>88215430677</v>
+      </c>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="M52" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N52" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>2003</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J53" s="1" t="n">
+        <v>81779068480</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="N53" s="14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>1994</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J54" s="1" t="n">
+        <v>83838353053</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="E55" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="22" t="n">
+        <v>1997</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55" s="9" t="n">
+        <v>89682244866</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="22" t="n">
+        <v>26</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="22" t="n">
+        <v>1995</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="J56" s="9" t="n">
+        <v>81225663637</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>1999</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J57" s="1" t="n">
+        <v>85105576660</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="232016164@student.uksw.edu"/>
+    <hyperlink ref="C37" r:id="rId2" display="jozefnicholas1410@gmail.com"/>
+    <hyperlink ref="C48" r:id="rId3" display="jasonstefanoalexander@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2903,20 +4936,20 @@
   <dimension ref="A2:R43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>166</v>
+      <c r="A2" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>381</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>167</v>
+        <v>382</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -2930,26 +4963,26 @@
       <c r="G2" s="2" t="n">
         <v>2001</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>168</v>
+      <c r="H2" s="14" t="s">
+        <v>383</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>170</v>
+        <v>384</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>385</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="L2" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>172</v>
+      <c r="M2" s="14" t="s">
+        <v>296</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>173</v>
+        <v>387</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -2958,13 +4991,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>175</v>
+        <v>388</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>389</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>176</v>
+        <v>390</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -2979,16 +5012,16 @@
         <v>1994</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>177</v>
+        <v>391</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="22" t="n">
+      <c r="J3" s="28" t="n">
         <v>81802467600</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>178</v>
+        <v>392</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>17</v>
@@ -2997,7 +5030,7 @@
         <v>66</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -3005,14 +5038,14 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>181</v>
+      <c r="A4" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>394</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>182</v>
+        <v>395</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -3026,89 +5059,89 @@
       <c r="G4" s="2" t="n">
         <v>1999</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>183</v>
+      <c r="H4" s="21" t="s">
+        <v>396</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="J4" s="19" t="n">
+        <v>397</v>
+      </c>
+      <c r="J4" s="21" t="n">
         <v>89505550437</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="L4" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="L4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="21" t="s">
         <v>66</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="O4" s="12"/>
+        <v>399</v>
+      </c>
+      <c r="O4" s="13"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="E5" s="21" t="n">
+      <c r="A5" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="E5" s="23" t="n">
         <v>31</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="21" t="n">
+      <c r="G5" s="23" t="n">
         <v>9999</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="O5" s="12"/>
+      <c r="H5" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="O5" s="13"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>193</v>
+        <v>406</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>194</v>
+        <v>407</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>195</v>
+        <v>408</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
@@ -3123,16 +5156,16 @@
         <v>1998</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>196</v>
+        <v>409</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>196</v>
+        <v>409</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>197</v>
+        <v>410</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>198</v>
+        <v>411</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>17</v>
@@ -3143,20 +5176,20 @@
       <c r="N6" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>199</v>
+        <v>412</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>200</v>
+        <v>413</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>201</v>
+        <v>414</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>3</v>
@@ -3165,22 +5198,20 @@
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>1990</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>203</v>
+        <v>415</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>203</v>
+        <v>415</v>
       </c>
       <c r="J7" s="1" t="n">
         <v>82220215009</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>204</v>
+        <v>416</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>17</v>
@@ -3189,7 +5220,7 @@
         <v>66</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>205</v>
+        <v>417</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -3198,13 +5229,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>206</v>
+        <v>418</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>207</v>
+        <v>419</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>208</v>
+        <v>420</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>3</v>
@@ -3219,16 +5250,16 @@
         <v>1996</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>209</v>
+        <v>421</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>210</v>
+        <v>422</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>211</v>
+        <v>423</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>212</v>
+        <v>424</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>34</v>
@@ -3236,23 +5267,23 @@
       <c r="M8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="O8" s="12"/>
+      <c r="N8" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="O8" s="13"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>214</v>
+        <v>426</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>215</v>
+        <v>427</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>216</v>
+        <v>428</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>3</v>
@@ -3267,16 +5298,16 @@
         <v>1998</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>217</v>
+        <v>429</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>218</v>
+        <v>430</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>219</v>
+        <v>431</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>220</v>
+        <v>432</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>17</v>
@@ -3285,22 +5316,22 @@
         <v>66</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
+        <v>433</v>
+      </c>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
       <c r="R9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>223</v>
+      <c r="A10" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>435</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>224</v>
+        <v>436</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -3315,40 +5346,40 @@
         <v>1999</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>225</v>
+        <v>437</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="J10" s="19" t="n">
+        <v>438</v>
+      </c>
+      <c r="J10" s="21" t="n">
         <v>82134150384</v>
       </c>
-      <c r="K10" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="L10" s="19" t="s">
+      <c r="K10" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="L10" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="O10" s="12"/>
+      <c r="O10" s="13"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>229</v>
+      <c r="A11" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>441</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>230</v>
+        <v>442</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>139</v>
@@ -3357,49 +5388,49 @@
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>1998</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>232</v>
+      <c r="H11" s="21" t="s">
+        <v>443</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>234</v>
+        <v>444</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>445</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="M11" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="M11" s="21" t="s">
         <v>10</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
+        <v>448</v>
+      </c>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>238</v>
+        <v>449</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>239</v>
+        <v>450</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>240</v>
+        <v>451</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>241</v>
+        <v>452</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>5</v>
@@ -3411,16 +5442,16 @@
         <v>1998</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>242</v>
+        <v>453</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>243</v>
+        <v>454</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>244</v>
+        <v>455</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>245</v>
+        <v>456</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>17</v>
@@ -3429,7 +5460,7 @@
         <v>66</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>246</v>
+        <v>457</v>
       </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -3437,14 +5468,14 @@
       <c r="R12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>248</v>
+      <c r="A13" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>459</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>249</v>
+        <v>460</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>3</v>
@@ -3458,17 +5489,17 @@
       <c r="G13" s="2" t="n">
         <v>1992</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>252</v>
+      <c r="H13" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>463</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>17</v>
@@ -3477,22 +5508,22 @@
         <v>66</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
+        <v>464</v>
+      </c>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>255</v>
+      <c r="A14" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>466</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>256</v>
+        <v>467</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>3</v>
@@ -3506,41 +5537,41 @@
       <c r="G14" s="2" t="n">
         <v>2001</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>257</v>
+      <c r="H14" s="14" t="s">
+        <v>468</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="J14" s="13" t="n">
+        <v>469</v>
+      </c>
+      <c r="J14" s="14" t="n">
         <v>89501889986</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="L14" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="L14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="13" t="s">
-        <v>172</v>
+      <c r="M14" s="14" t="s">
+        <v>296</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
+        <v>471</v>
+      </c>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>262</v>
+        <v>472</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>473</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>263</v>
+        <v>474</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
@@ -3555,16 +5586,16 @@
         <v>1998</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>264</v>
+        <v>475</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="J15" s="22" t="n">
+        <v>476</v>
+      </c>
+      <c r="J15" s="28" t="n">
         <v>895378898456</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>266</v>
+        <v>477</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>17</v>
@@ -3573,7 +5604,7 @@
         <v>25</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>267</v>
+        <v>478</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -3582,13 +5613,13 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>269</v>
+        <v>479</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>480</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>270</v>
+        <v>481</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
@@ -3597,31 +5628,31 @@
         <v>20</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>2002</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>272</v>
+        <v>482</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>273</v>
+        <v>483</v>
       </c>
       <c r="J16" s="1" t="n">
         <v>83838353051</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>274</v>
+        <v>484</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>9</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>275</v>
+        <v>485</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>276</v>
+        <v>486</v>
       </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -3629,62 +5660,62 @@
       <c r="R16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D17" s="20" t="s">
+      <c r="A17" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="20" t="n">
+      <c r="E17" s="22" t="n">
         <v>11</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="G17" s="20" t="n">
+      <c r="F17" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="22" t="n">
         <v>1999</v>
       </c>
-      <c r="H17" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="J17" s="19" t="n">
+      <c r="H17" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="J17" s="21" t="n">
         <v>87731096580</v>
       </c>
-      <c r="K17" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="L17" s="19" t="s">
+      <c r="K17" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="L17" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="19" t="s">
+      <c r="M17" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="O17" s="12"/>
+      <c r="N17" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="O17" s="13"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>285</v>
+        <v>494</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>495</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>286</v>
+        <v>496</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>3</v>
@@ -3693,22 +5724,22 @@
         <v>17</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>1999</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>287</v>
+        <v>497</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>289</v>
+        <v>498</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>499</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>9</v>
@@ -3717,7 +5748,7 @@
         <v>25</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>291</v>
+        <v>501</v>
       </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -3725,14 +5756,14 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>293</v>
+      <c r="A19" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>503</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>294</v>
+        <v>504</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>3</v>
@@ -3746,42 +5777,42 @@
       <c r="G19" s="2" t="n">
         <v>1999</v>
       </c>
-      <c r="H19" s="19" t="s">
-        <v>295</v>
+      <c r="H19" s="21" t="s">
+        <v>247</v>
       </c>
       <c r="I19" s="11"/>
-      <c r="J19" s="19" t="s">
-        <v>296</v>
+      <c r="J19" s="21" t="s">
+        <v>505</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="L19" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="L19" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="19" t="s">
+      <c r="M19" s="21" t="s">
         <v>25</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="O19" s="12"/>
+        <v>507</v>
+      </c>
+      <c r="O19" s="13"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>299</v>
+        <v>508</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>300</v>
+        <v>509</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>301</v>
+        <v>510</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>302</v>
+        <v>511</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>3</v>
@@ -3793,16 +5824,16 @@
         <v>2001</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>303</v>
+        <v>512</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>303</v>
+        <v>512</v>
       </c>
       <c r="J20" s="1" t="n">
         <v>81325893377</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>304</v>
+        <v>513</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>9</v>
@@ -3811,7 +5842,7 @@
         <v>25</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>305</v>
+        <v>514</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -3820,13 +5851,13 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>306</v>
+        <v>515</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>307</v>
+        <v>516</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>308</v>
+        <v>517</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>3</v>
@@ -3835,22 +5866,22 @@
         <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>2004</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>309</v>
+        <v>518</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>309</v>
+        <v>518</v>
       </c>
       <c r="J21" s="1" t="n">
         <v>87731335686</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>310</v>
+        <v>519</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>9</v>
@@ -3859,22 +5890,22 @@
         <v>25</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="O21" s="26"/>
+        <v>520</v>
+      </c>
+      <c r="O21" s="32"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>312</v>
+        <v>521</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>313</v>
+        <v>522</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>314</v>
+        <v>523</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>139</v>
@@ -3889,16 +5920,16 @@
         <v>1997</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>315</v>
+        <v>524</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>316</v>
+        <v>525</v>
       </c>
       <c r="J22" s="1" t="n">
         <v>85742252091</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>317</v>
+        <v>526</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>17</v>
@@ -3907,53 +5938,53 @@
         <v>10</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
+        <v>457</v>
+      </c>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>318</v>
+        <v>527</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>319</v>
+        <v>528</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>320</v>
+        <v>529</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>321</v>
+        <v>530</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>322</v>
+        <v>531</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>1998</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>323</v>
+        <v>532</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>323</v>
+        <v>532</v>
       </c>
       <c r="J23" s="1" t="n">
         <v>81377503670</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>324</v>
+        <v>533</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>325</v>
+        <v>534</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>326</v>
+        <v>535</v>
       </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -3962,13 +5993,13 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>327</v>
+        <v>536</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>319</v>
+        <v>528</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>328</v>
+        <v>537</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>3</v>
@@ -3983,16 +6014,16 @@
         <v>2003</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>329</v>
+        <v>538</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>329</v>
+        <v>538</v>
       </c>
       <c r="J24" s="1" t="n">
         <v>89682579728</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>330</v>
+        <v>539</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>9</v>
@@ -4000,7 +6031,7 @@
       <c r="M24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N24" s="13" t="s">
+      <c r="N24" s="14" t="s">
         <v>75</v>
       </c>
       <c r="O24" s="7"/>
@@ -4009,14 +6040,14 @@
       <c r="R24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>332</v>
+      <c r="A25" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>541</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>333</v>
+        <v>542</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>3</v>
@@ -4030,65 +6061,65 @@
       <c r="G25" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="H25" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>336</v>
+      <c r="H25" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="L25" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="L25" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M25" s="19" t="s">
+      <c r="M25" s="21" t="s">
         <v>25</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="O25" s="12"/>
+        <v>547</v>
+      </c>
+      <c r="O25" s="13"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="21" t="n">
+      <c r="A26" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="23" t="n">
         <v>15</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="21" t="n">
+      <c r="G26" s="23" t="n">
         <v>1999</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>341</v>
+        <v>550</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>342</v>
+        <v>550</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>551</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>343</v>
+        <v>552</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>9</v>
@@ -4096,26 +6127,26 @@
       <c r="M26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N26" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="O26" s="12"/>
+      <c r="N26" s="31" t="s">
+        <v>553</v>
+      </c>
+      <c r="O26" s="13"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>345</v>
+        <v>554</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>346</v>
+        <v>555</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>347</v>
+        <v>556</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>348</v>
+        <v>557</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>9</v>
@@ -4127,16 +6158,16 @@
         <v>1999</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>349</v>
+        <v>558</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>350</v>
+        <v>559</v>
       </c>
       <c r="J27" s="1" t="n">
         <v>82324203556</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>351</v>
+        <v>560</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>114</v>
@@ -4145,7 +6176,7 @@
         <v>66</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>246</v>
+        <v>457</v>
       </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
@@ -4153,14 +6184,14 @@
       <c r="R27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
-        <v>352</v>
+      <c r="A28" s="14" t="s">
+        <v>561</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>353</v>
+        <v>562</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>354</v>
+        <v>563</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>3</v>
@@ -4174,44 +6205,44 @@
       <c r="G28" s="2" t="n">
         <v>1992</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>355</v>
+      <c r="H28" s="14" t="s">
+        <v>564</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="L28" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="L28" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="M28" s="13" t="s">
+      <c r="M28" s="14" t="s">
         <v>25</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="O28" s="12"/>
+        <v>520</v>
+      </c>
+      <c r="O28" s="13"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>358</v>
+        <v>567</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>359</v>
+        <v>568</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>360</v>
+        <v>569</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>361</v>
+        <v>204</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>13</v>
@@ -4223,16 +6254,16 @@
         <v>2003</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>362</v>
+        <v>570</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>363</v>
+        <v>571</v>
       </c>
       <c r="J29" s="1" t="n">
         <v>81390886513</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>364</v>
+        <v>572</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>9</v>
@@ -4240,71 +6271,71 @@
       <c r="M29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N29" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="O29" s="26"/>
+      <c r="N29" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="O29" s="32"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="21" t="n">
+      <c r="A30" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>574</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="F30" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="G30" s="21" t="n">
+      <c r="F30" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="G30" s="23" t="n">
         <v>1997</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="N30" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="O30" s="24"/>
+      <c r="H30" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="N30" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="O30" s="34"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>374</v>
+        <v>582</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>375</v>
+        <v>583</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>376</v>
+        <v>584</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>3</v>
@@ -4319,16 +6350,16 @@
         <v>2001</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>377</v>
+        <v>585</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>377</v>
+        <v>585</v>
       </c>
       <c r="J31" s="1" t="n">
         <v>85742268145</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>378</v>
+        <v>586</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>9</v>
@@ -4337,7 +6368,7 @@
         <v>66</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>379</v>
+        <v>587</v>
       </c>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
@@ -4346,13 +6377,13 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>380</v>
+        <v>588</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>381</v>
+        <v>589</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>382</v>
+        <v>590</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>3</v>
@@ -4367,16 +6398,16 @@
         <v>2003</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>383</v>
+        <v>591</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>384</v>
+        <v>592</v>
       </c>
       <c r="J32" s="1" t="n">
         <v>85641641488</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>385</v>
+        <v>593</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>9</v>
@@ -4384,95 +6415,95 @@
       <c r="M32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N32" s="13" t="s">
+      <c r="N32" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="O32" s="26"/>
+      <c r="O32" s="32"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>387</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>388</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="16" t="n">
+      <c r="A33" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="G33" s="16" t="n">
+      <c r="F33" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="G33" s="17" t="n">
         <v>2001</v>
       </c>
-      <c r="H33" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="I33" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="J33" s="17" t="n">
+      <c r="H33" s="18" t="s">
+        <v>597</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>597</v>
+      </c>
+      <c r="J33" s="18" t="n">
         <v>87734239109</v>
       </c>
-      <c r="K33" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="L33" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="M33" s="17" t="s">
+      <c r="K33" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="M33" s="18" t="s">
         <v>66</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="O33" s="12"/>
+        <v>600</v>
+      </c>
+      <c r="O33" s="13"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="21" t="n">
+      <c r="A34" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="F34" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="G34" s="21" t="n">
+      <c r="F34" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="G34" s="23" t="n">
         <v>2000</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>396</v>
+        <v>604</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>396</v>
+        <v>604</v>
       </c>
       <c r="J34" s="9" t="n">
         <v>87739464284</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>397</v>
+        <v>605</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>17</v>
@@ -4483,20 +6514,20 @@
       <c r="N34" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="O34" s="12"/>
+      <c r="O34" s="13"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>398</v>
+        <v>606</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>399</v>
+        <v>607</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>400</v>
+        <v>608</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>125</v>
@@ -4505,22 +6536,22 @@
         <v>27</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>202</v>
+        <v>347</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>1994</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>401</v>
+        <v>609</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>402</v>
+        <v>610</v>
       </c>
       <c r="J35" s="1" t="n">
         <v>8995751345</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>403</v>
+        <v>611</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>17</v>
@@ -4529,7 +6560,7 @@
         <v>10</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>404</v>
+        <v>612</v>
       </c>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
@@ -4538,13 +6569,13 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>406</v>
+        <v>613</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>614</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>407</v>
+        <v>615</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>3</v>
@@ -4559,16 +6590,16 @@
         <v>2000</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>408</v>
+        <v>616</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>409</v>
+        <v>617</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>410</v>
+        <v>618</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>114</v>
@@ -4577,22 +6608,22 @@
         <v>25</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
+        <v>619</v>
+      </c>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>413</v>
+        <v>620</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>621</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>414</v>
+        <v>622</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>3</v>
@@ -4601,27 +6632,27 @@
         <v>2</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>2000</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>415</v>
+        <v>623</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>288</v>
+        <v>498</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>416</v>
+        <v>624</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="L37" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="L37" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M37" s="13" t="s">
+      <c r="M37" s="14" t="s">
         <v>25</v>
       </c>
       <c r="N37" s="11" t="s">
@@ -4634,13 +6665,13 @@
     </row>
     <row r="38" customFormat="false" ht="166" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>418</v>
+        <v>626</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>419</v>
+        <v>627</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>420</v>
+        <v>628</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>3</v>
@@ -4654,17 +6685,17 @@
       <c r="G38" s="2" t="n">
         <v>2002</v>
       </c>
-      <c r="H38" s="19" t="s">
-        <v>421</v>
+      <c r="H38" s="21" t="s">
+        <v>629</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>422</v>
+        <v>630</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>423</v>
+        <v>631</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>424</v>
+        <v>632</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>9</v>
@@ -4673,7 +6704,7 @@
         <v>10</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>425</v>
+        <v>633</v>
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
@@ -4681,14 +6712,14 @@
       <c r="R38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>427</v>
+      <c r="A39" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>635</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>428</v>
+        <v>636</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>3</v>
@@ -4697,13 +6728,13 @@
         <v>8</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>202</v>
+        <v>347</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>1996</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>429</v>
+        <v>637</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>3</v>
@@ -4712,7 +6743,7 @@
         <v>895361751755</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>430</v>
+        <v>638</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>17</v>
@@ -4720,7 +6751,7 @@
       <c r="M39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N39" s="13" t="s">
+      <c r="N39" s="14" t="s">
         <v>75</v>
       </c>
       <c r="O39" s="7"/>
@@ -4730,37 +6761,37 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>431</v>
+        <v>639</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>432</v>
+        <v>640</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>433</v>
+        <v>641</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>434</v>
+        <v>642</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>17</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>202</v>
+        <v>347</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>2000</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>435</v>
+        <v>643</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>435</v>
+        <v>643</v>
       </c>
       <c r="J40" s="1" t="n">
         <v>81230936912</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>436</v>
+        <v>644</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>9</v>
@@ -4769,22 +6800,22 @@
         <v>25</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
+        <v>645</v>
+      </c>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>438</v>
+        <v>646</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>439</v>
+        <v>647</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>440</v>
+        <v>648</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>3</v>
@@ -4793,22 +6824,22 @@
         <v>26</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>1998</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>441</v>
+        <v>649</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>442</v>
+        <v>650</v>
       </c>
       <c r="J41" s="1" t="n">
         <v>89526225300</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>443</v>
+        <v>651</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>17</v>
@@ -4816,8 +6847,8 @@
       <c r="M41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N41" s="13" t="s">
-        <v>311</v>
+      <c r="N41" s="14" t="s">
+        <v>520</v>
       </c>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
@@ -4826,13 +6857,13 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>444</v>
+        <v>652</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>445</v>
+        <v>653</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>446</v>
+        <v>654</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>3</v>
@@ -4847,23 +6878,23 @@
         <v>1999</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>447</v>
+        <v>655</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>447</v>
+        <v>655</v>
       </c>
       <c r="J42" s="1" t="n">
         <v>8882555681</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>448</v>
+        <v>656</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>449</v>
+        <v>657</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>450</v>
+        <v>658</v>
       </c>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
@@ -4871,17 +6902,17 @@
       <c r="R42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>452</v>
+      <c r="A43" s="21" t="s">
+        <v>659</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>660</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>453</v>
+        <v>661</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>454</v>
+        <v>662</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>28</v>
@@ -4893,16 +6924,16 @@
         <v>1999</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>455</v>
+        <v>663</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>456</v>
+        <v>664</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>457</v>
+        <v>665</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>458</v>
+        <v>666</v>
       </c>
       <c r="L43" s="11" t="s">
         <v>17</v>
@@ -4911,7 +6942,7 @@
         <v>25</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>246</v>
+        <v>457</v>
       </c>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
@@ -4928,7 +6959,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/public/master_member/MemberKYU.xlsx
+++ b/public/master_member/MemberKYU.xlsx
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="667">
   <si>
     <t xml:space="preserve">Andreiku Lelonu</t>
   </si>
@@ -574,6 +574,651 @@
     <t xml:space="preserve">innocenziolouis</t>
   </si>
   <si>
+    <t xml:space="preserve">Jap David Arief Soewondo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jap David</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arifdavid67@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rejosari Tengah 2 no3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jap David Arief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multimedia, Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason Brilly Karunia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brillyjasonks@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl pandan wangi raya A no 19 Semarang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jasnbrilly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publikasi (Design Flyer &amp; Poster), Event Organizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonathan Ricky Haryanto T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jonathanricky237@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Pedurungan Baru III no 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jonathanricky27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WL / Worship Leader, Gitarist, Piano, Keyboardist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joshua Steven Hans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stevenhans10@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl.Badak 1 No. 67 Semarang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Badak 1 No. 67 Semarang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">081578454488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singer, Penyambutan &amp; Kolektan, Multimedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josef Ardian Soetjipto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">takeda21yuki@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jln krakatau raya 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black_moon_art</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publikasi (Design Flyer &amp; Poster)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Orlando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kevinorlando5758@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agung 42, Gajahmungkur, Semarang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kevinorlandoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurniawan Eka Chandra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kurniawanxig@mail.ugm.ac.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kediri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Rejosari Tengah II no. 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@kurniawan.paw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuliah, organisasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singer, Publikasi (Design Flyer &amp; Poster)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levin Kusuma Adiatma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">levinkusuma@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Cendrawasih Selatan 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@levinkusuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lg ga di Smg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marseli Kandou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marsel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marselikandou@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalan cemara raya nomor 55 banyumanik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6281228078883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim Visit (perkunjungan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marteen Christian Widanto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hwe-Hwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17d10043@student.unika.ac.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graha padma tmn magnolia a5/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graha padma tmn magnilia a5/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08122864296 (wa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maaarteeenjr06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mikhael Aditya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mumun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mikhweladitya007@gmail.con</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonodri Krajan Buntu 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Griya Malangsari Indah No 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">087821484442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Tri Ardianto Wijaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Tri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">michaeltri300@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl.Jagalan Timur no 214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semarang, Jawa Tengah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0895360280208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">michaeltri_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicholas Jozef Audrey Wiraputra Tahapary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rere/Njo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jozefnicholas1410@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tambak Mas Timur CM 142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">njo1410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singer, Drummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathanael Ryan C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nathanaelryan34@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surtikanti Raya no. 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalan cendana no 3, salatiga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nat_ael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oei Marcell Setiawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marcelsetiawan56@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalan Murti Saphira 4/532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oei_marcelll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuliah dan kerja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gitarist, Multimedia, Sound System, Dekorasi, Event Organizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paulus Hadi Wijaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obelus88@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JL Puri Anjasmoro A6/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singer, Gitarist, Bassist, Penyambutan &amp; Kolektan, Multimedia, Sound System, Tim Visit (perkunjungan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pieter Theodorus Handoko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">theoalpha9@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kemuning 3 no. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. kemuning 3 no 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">081575884396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@theoalpha9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bptis Sidi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multimedia, Dekorasi, Tim Visit (perkunjungan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pratama Nugraha Fanjaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pratama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pratxz@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selomas raya b20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piinitial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael Anthonio Nanda S.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apentul.18@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Karangwulan Sari II No. 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08976209018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael anthonio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piano, Keyboardist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rei Benedict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reibenedict@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Januari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rejosari IV / 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reibenedict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sidi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tidak Ada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhesa Widagdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dagdodrumchannel@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citandui Raya no 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rhesadagdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samuel Kurniawan Santoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samuelkurniawan0@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kendal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl.Randusari Pos 2 No. 376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">083838905666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sm_kurniawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santoso Wijaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wijayasantoso508@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugangan Dalam C no. 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugangan dalam c no 87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">088233088018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penyambutan &amp; Kolektan, Dekorasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefano Alexander Pribadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jasonstefanoalexander@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Bukit Arta no. 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fano_alexander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">belum bersedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steven Susanto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steven230391@gmail.con</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Gang Tengah 65 Semarang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87832345535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steven.susanto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simeon Bensona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sbensona77@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalan Kolonel Sugiono 62 Purwodadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Kolonel Sugiono 62 Purwodadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6285877679106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bensonsimeon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publikasi (Design Flyer &amp; Poster), Dekorasi, Event Organizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The, Rizky Aji Saputra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rizky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rizky.aji1203@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalan Kemuning III no 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08974749599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_therizky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singer, Bassist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tan, Elvin Octavius Santoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joshua Elvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joshuasantoso225@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oktober</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Parang Kesit VII No. 23 Tlogosari Kulon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera, Event Organizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timothy Satriya Budiono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timothy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timothysatriya@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Sidorejo No.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timothysatriya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multimedia, Sound System, Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vincent Octavian Siswoyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vincent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">voctavian94@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">halmahera raya no. 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">semarang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@voctavian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yohanes Dwi Prasetyo Nugroho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yohanesdwi22@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kebumen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kentangan Barat 1 No 263 Jagalan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@yohanesdwi_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yohanes kurniawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yohaneskurniawan26@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banjarsari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yokomoto_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jemaat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yulius Steven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stvnacil@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jagalan tengah 523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stvnacil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WL / Worship Leader, Drummer, Bassist, Penyambutan &amp; Kolektan, Multimedia, Sound System, Camera, Dekorasi, Tim Visit (perkunjungan), Event Organizer</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aileen Bella Sanjaya </t>
   </si>
   <si>
@@ -595,9 +1240,6 @@
     <t xml:space="preserve">aileenbella19</t>
   </si>
   <si>
-    <t xml:space="preserve">Sidi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Singer, WL / Worship Leader, Piano, Keyboardist, Tim Visit (perkunjungan), Event Organizer</t>
   </si>
   <si>
@@ -616,9 +1258,6 @@
     <t xml:space="preserve">Aimeefang_</t>
   </si>
   <si>
-    <t xml:space="preserve">Publikasi (Design Flyer &amp; Poster)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anita Caroline Susanto</t>
   </si>
   <si>
@@ -685,9 +1324,6 @@
     <t xml:space="preserve">benitalivia06@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Oktober</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jl. Puspanjolo dalam VIII no 34 Rt/ Rw 006/001 Bojongsalamam, Semarang Barat</t>
   </si>
   <si>
@@ -772,9 +1408,6 @@
     <t xml:space="preserve">esterinatrijayanti@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Januari</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jl. Kemuning 2 No. 10/11</t>
   </si>
   <si>
@@ -892,9 +1525,6 @@
     <t xml:space="preserve">graciellams38@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Juni</t>
-  </si>
-  <si>
     <t xml:space="preserve">Halmahera raya 44</t>
   </si>
   <si>
@@ -964,9 +1594,6 @@
     <t xml:space="preserve">juliettaengelbertha@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Tambak Mas Timur CM 142</t>
-  </si>
-  <si>
     <t xml:space="preserve">081391593307</t>
   </si>
   <si>
@@ -1160,9 +1787,6 @@
   </si>
   <si>
     <t xml:space="preserve">ellachandra42@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kediri</t>
   </si>
   <si>
     <t xml:space="preserve">Jalan Rejosari Tengah II no.24</t>
@@ -1468,8 +2092,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="d\-mmm\-yy"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1531,12 +2155,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -1565,28 +2196,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1610,6 +2241,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1618,11 +2253,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1643,30 +2278,50 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1674,12 +2329,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1699,13 +2354,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:S24"/>
+  <dimension ref="A2:S57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -1895,11 +2550,11 @@
       <c r="N5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -1941,7 +2596,7 @@
       <c r="M6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="14" t="s">
         <v>43</v>
       </c>
       <c r="O6" s="10"/>
@@ -1954,7 +2609,7 @@
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1993,7 +2648,7 @@
       <c r="N7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O7" s="15"/>
+      <c r="O7" s="16"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
@@ -2098,49 +2753,49 @@
       <c r="S9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="16" t="n">
+      <c r="D10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="16" t="n">
+      <c r="G10" s="17" t="n">
         <v>1998</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="17" t="n">
+      <c r="J10" s="18" t="n">
         <v>87778904742</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="R10" s="17"/>
+      <c r="R10" s="18"/>
       <c r="S10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2183,7 +2838,7 @@
       <c r="M11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="14" t="s">
         <v>82</v>
       </c>
       <c r="O11" s="10"/>
@@ -2232,10 +2887,10 @@
       <c r="M12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="O12" s="18"/>
+      <c r="O12" s="19"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
@@ -2279,7 +2934,7 @@
         <v>17</v>
       </c>
       <c r="M13" s="1"/>
-      <c r="N13" s="13" t="s">
+      <c r="N13" s="14" t="s">
         <v>75</v>
       </c>
       <c r="O13" s="10"/>
@@ -2378,17 +3033,17 @@
       <c r="N15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O15" s="1"/>
+      <c r="O15" s="20"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="22" t="s">
         <v>110</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2520,20 +3175,20 @@
       <c r="M18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="13" t="s">
+      <c r="N18" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>131</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2572,7 +3227,7 @@
       <c r="N19" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O19" s="15"/>
+      <c r="O19" s="16"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
@@ -2628,10 +3283,10 @@
       <c r="S20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="22" t="s">
         <v>144</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2668,17 +3323,17 @@
       <c r="N21" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="O21" s="1"/>
+      <c r="O21" s="20"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="22" t="s">
         <v>150</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2714,20 +3369,20 @@
       <c r="M22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N22" s="13" t="s">
+      <c r="N22" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="O22" s="15"/>
+      <c r="O22" s="16"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="22" t="s">
         <v>156</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2810,18 +3465,1458 @@
       <c r="M24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N24" s="13" t="s">
+      <c r="N24" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="O24" s="15"/>
+      <c r="O24" s="16"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
     </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>1991</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>85643538336</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>2002</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>85604324713</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="22" t="n">
+        <v>7</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="22" t="n">
+        <v>1999</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>81818953489</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>1997</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N28" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>88802432167</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="17" t="n">
+        <v>1998</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J30" s="9" t="n">
+        <v>85740736896</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>2002</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>81395300063</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>1993</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>81914568585</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>1981</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="22" t="n">
+        <v>1999</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>1997</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>2003</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="4" t="n">
+        <v>2001</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <v>81270746951</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="17" t="n">
+        <v>9</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="17" t="n">
+        <v>1994</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="J38" s="18" t="n">
+        <v>81914455658</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>2003</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <v>81229756845</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>1990</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <v>81225225885</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>1998</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M41" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>1991</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J42" s="1" t="n">
+        <v>81252880527</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>1999</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="G44" s="17" t="n">
+        <v>1994</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>81217775117</v>
+      </c>
+      <c r="K44" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>1994</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="1" t="n">
+        <v>83842549755</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="J46" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="L46" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M46" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>1991</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="K47" s="14"/>
+      <c r="L47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="22" t="n">
+        <v>1992</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="J48" s="18" t="n">
+        <v>8174150149</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="L48" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="23" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="J49" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>1998</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N50" s="14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>2003</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>1998</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J52" s="21" t="n">
+        <v>88215430677</v>
+      </c>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="M52" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="N52" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>2003</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J53" s="1" t="n">
+        <v>81779068480</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="N53" s="14" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>1994</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J54" s="1" t="n">
+        <v>83838353053</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="E55" s="22" t="n">
+        <v>14</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="22" t="n">
+        <v>1997</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55" s="9" t="n">
+        <v>89682244866</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="22" t="n">
+        <v>26</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="22" t="n">
+        <v>1995</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="J56" s="9" t="n">
+        <v>81225663637</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>1999</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J57" s="1" t="n">
+        <v>85105576660</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="232016164@student.uksw.edu"/>
+    <hyperlink ref="C37" r:id="rId2" display="jozefnicholas1410@gmail.com"/>
+    <hyperlink ref="C48" r:id="rId3" display="jasonstefanoalexander@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2844,17 +4939,17 @@
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>166</v>
+      <c r="A2" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>381</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>167</v>
+        <v>382</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -2868,26 +4963,26 @@
       <c r="G2" s="2" t="n">
         <v>2001</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>168</v>
+      <c r="H2" s="14" t="s">
+        <v>383</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>170</v>
+        <v>384</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>385</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="L2" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="13" t="s">
-        <v>172</v>
+      <c r="M2" s="14" t="s">
+        <v>296</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>173</v>
+        <v>387</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -2896,13 +4991,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>175</v>
+        <v>388</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>389</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>176</v>
+        <v>390</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -2917,16 +5012,16 @@
         <v>1994</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>177</v>
+        <v>391</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="22" t="n">
+      <c r="J3" s="28" t="n">
         <v>81802467600</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>178</v>
+        <v>392</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>17</v>
@@ -2935,7 +5030,7 @@
         <v>66</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -2943,14 +5038,14 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>181</v>
+      <c r="A4" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>394</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>182</v>
+        <v>395</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
@@ -2964,89 +5059,89 @@
       <c r="G4" s="2" t="n">
         <v>1999</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>183</v>
+      <c r="H4" s="21" t="s">
+        <v>396</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="J4" s="19" t="n">
+        <v>397</v>
+      </c>
+      <c r="J4" s="21" t="n">
         <v>89505550437</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="L4" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="L4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="21" t="s">
         <v>66</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="O4" s="12"/>
+        <v>399</v>
+      </c>
+      <c r="O4" s="13"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="E5" s="21" t="n">
+      <c r="A5" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="E5" s="23" t="n">
         <v>31</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="21" t="n">
+      <c r="G5" s="23" t="n">
         <v>9999</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="O5" s="12"/>
+      <c r="H5" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="O5" s="13"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>193</v>
+        <v>406</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>194</v>
+        <v>407</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>195</v>
+        <v>408</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
@@ -3061,16 +5156,16 @@
         <v>1998</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>196</v>
+        <v>409</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>196</v>
+        <v>409</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>197</v>
+        <v>410</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>198</v>
+        <v>411</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>17</v>
@@ -3081,20 +5176,20 @@
       <c r="N6" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>199</v>
+        <v>412</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>200</v>
+        <v>413</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>201</v>
+        <v>414</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>3</v>
@@ -3103,22 +5198,22 @@
         <v>6</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>202</v>
+        <v>347</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>9999</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>203</v>
+        <v>415</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>203</v>
+        <v>415</v>
       </c>
       <c r="J7" s="1" t="n">
         <v>82220215009</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>204</v>
+        <v>416</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>17</v>
@@ -3127,7 +5222,7 @@
         <v>66</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>205</v>
+        <v>417</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -3136,13 +5231,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>206</v>
+        <v>418</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>207</v>
+        <v>419</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>208</v>
+        <v>420</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>3</v>
@@ -3157,16 +5252,16 @@
         <v>1996</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>209</v>
+        <v>421</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>210</v>
+        <v>422</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>211</v>
+        <v>423</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>212</v>
+        <v>424</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>34</v>
@@ -3174,23 +5269,23 @@
       <c r="M8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="O8" s="12"/>
+      <c r="N8" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="O8" s="13"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>214</v>
+        <v>426</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>215</v>
+        <v>427</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>216</v>
+        <v>428</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>3</v>
@@ -3205,16 +5300,16 @@
         <v>1998</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>217</v>
+        <v>429</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>218</v>
+        <v>430</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>219</v>
+        <v>431</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>220</v>
+        <v>432</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>17</v>
@@ -3223,22 +5318,22 @@
         <v>66</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
+        <v>433</v>
+      </c>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
       <c r="R9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>223</v>
+      <c r="A10" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>435</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>224</v>
+        <v>436</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -3253,40 +5348,40 @@
         <v>1999</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>225</v>
+        <v>437</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="J10" s="19" t="n">
+        <v>438</v>
+      </c>
+      <c r="J10" s="21" t="n">
         <v>82134150384</v>
       </c>
-      <c r="K10" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="L10" s="19" t="s">
+      <c r="K10" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="L10" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="O10" s="12"/>
+      <c r="O10" s="13"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>229</v>
+      <c r="A11" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>441</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>230</v>
+        <v>442</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>139</v>
@@ -3295,49 +5390,49 @@
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>1998</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>232</v>
+      <c r="H11" s="21" t="s">
+        <v>443</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>234</v>
+        <v>444</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>445</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="M11" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="M11" s="21" t="s">
         <v>10</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
+        <v>448</v>
+      </c>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>238</v>
+        <v>449</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>239</v>
+        <v>450</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>240</v>
+        <v>451</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>241</v>
+        <v>452</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>5</v>
@@ -3349,16 +5444,16 @@
         <v>1998</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>242</v>
+        <v>453</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>243</v>
+        <v>454</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>244</v>
+        <v>455</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>245</v>
+        <v>456</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>17</v>
@@ -3367,7 +5462,7 @@
         <v>66</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>246</v>
+        <v>457</v>
       </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -3375,14 +5470,14 @@
       <c r="R12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>248</v>
+      <c r="A13" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>459</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>249</v>
+        <v>460</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>3</v>
@@ -3396,17 +5491,17 @@
       <c r="G13" s="2" t="n">
         <v>1992</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>252</v>
+      <c r="H13" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>463</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>17</v>
@@ -3415,22 +5510,22 @@
         <v>66</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
+        <v>464</v>
+      </c>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>255</v>
+      <c r="A14" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>466</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>256</v>
+        <v>467</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>3</v>
@@ -3444,41 +5539,41 @@
       <c r="G14" s="2" t="n">
         <v>2001</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>257</v>
+      <c r="H14" s="14" t="s">
+        <v>468</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="J14" s="13" t="n">
+        <v>469</v>
+      </c>
+      <c r="J14" s="14" t="n">
         <v>89501889986</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="L14" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="L14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="13" t="s">
-        <v>172</v>
+      <c r="M14" s="14" t="s">
+        <v>296</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
+        <v>471</v>
+      </c>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>262</v>
+        <v>472</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>473</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>263</v>
+        <v>474</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
@@ -3493,16 +5588,16 @@
         <v>1998</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>264</v>
+        <v>475</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="J15" s="22" t="n">
+        <v>476</v>
+      </c>
+      <c r="J15" s="28" t="n">
         <v>895378898456</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>266</v>
+        <v>477</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>17</v>
@@ -3511,7 +5606,7 @@
         <v>25</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>267</v>
+        <v>478</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -3520,13 +5615,13 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>269</v>
+        <v>479</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>480</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>270</v>
+        <v>481</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
@@ -3535,31 +5630,31 @@
         <v>20</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>2002</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>272</v>
+        <v>482</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>273</v>
+        <v>483</v>
       </c>
       <c r="J16" s="1" t="n">
         <v>83838353051</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>274</v>
+        <v>484</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>9</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>275</v>
+        <v>485</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>276</v>
+        <v>486</v>
       </c>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -3567,62 +5662,62 @@
       <c r="R16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D17" s="20" t="s">
+      <c r="A17" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="20" t="n">
+      <c r="E17" s="22" t="n">
         <v>11</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="G17" s="20" t="n">
+      <c r="F17" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="22" t="n">
         <v>1999</v>
       </c>
-      <c r="H17" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="J17" s="19" t="n">
+      <c r="H17" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="J17" s="21" t="n">
         <v>87731096580</v>
       </c>
-      <c r="K17" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="L17" s="19" t="s">
+      <c r="K17" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="L17" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="19" t="s">
+      <c r="M17" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="O17" s="12"/>
+      <c r="N17" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="O17" s="13"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>285</v>
+        <v>494</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>495</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>286</v>
+        <v>496</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>3</v>
@@ -3631,22 +5726,22 @@
         <v>17</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>1999</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>287</v>
+        <v>497</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>289</v>
+        <v>498</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>499</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>290</v>
+        <v>500</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>9</v>
@@ -3655,7 +5750,7 @@
         <v>25</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>291</v>
+        <v>501</v>
       </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
@@ -3663,14 +5758,14 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="39.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>293</v>
+      <c r="A19" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>503</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>294</v>
+        <v>504</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>3</v>
@@ -3684,42 +5779,42 @@
       <c r="G19" s="2" t="n">
         <v>1999</v>
       </c>
-      <c r="H19" s="19" t="s">
-        <v>295</v>
+      <c r="H19" s="21" t="s">
+        <v>247</v>
       </c>
       <c r="I19" s="11"/>
-      <c r="J19" s="19" t="s">
-        <v>296</v>
+      <c r="J19" s="21" t="s">
+        <v>505</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="L19" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="L19" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="19" t="s">
+      <c r="M19" s="21" t="s">
         <v>25</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="O19" s="12"/>
+        <v>507</v>
+      </c>
+      <c r="O19" s="13"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>299</v>
+        <v>508</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>300</v>
+        <v>509</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>301</v>
+        <v>510</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>302</v>
+        <v>511</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>3</v>
@@ -3731,16 +5826,16 @@
         <v>2001</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>303</v>
+        <v>512</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>303</v>
+        <v>512</v>
       </c>
       <c r="J20" s="1" t="n">
         <v>81325893377</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>304</v>
+        <v>513</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>9</v>
@@ -3749,7 +5844,7 @@
         <v>25</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>305</v>
+        <v>514</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -3758,13 +5853,13 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>306</v>
+        <v>515</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>307</v>
+        <v>516</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>308</v>
+        <v>517</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>3</v>
@@ -3773,22 +5868,22 @@
         <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>2004</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>309</v>
+        <v>518</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>309</v>
+        <v>518</v>
       </c>
       <c r="J21" s="1" t="n">
         <v>87731335686</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>310</v>
+        <v>519</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>9</v>
@@ -3797,22 +5892,22 @@
         <v>25</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="O21" s="26"/>
+        <v>520</v>
+      </c>
+      <c r="O21" s="32"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>312</v>
+        <v>521</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>313</v>
+        <v>522</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>314</v>
+        <v>523</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>139</v>
@@ -3827,16 +5922,16 @@
         <v>1997</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>315</v>
+        <v>524</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>316</v>
+        <v>525</v>
       </c>
       <c r="J22" s="1" t="n">
         <v>85742252091</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>317</v>
+        <v>526</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>17</v>
@@ -3845,53 +5940,53 @@
         <v>10</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
+        <v>457</v>
+      </c>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>318</v>
+        <v>527</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>319</v>
+        <v>528</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>320</v>
+        <v>529</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>321</v>
+        <v>530</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>25</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>322</v>
+        <v>531</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>1998</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>323</v>
+        <v>532</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>323</v>
+        <v>532</v>
       </c>
       <c r="J23" s="1" t="n">
         <v>81377503670</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>324</v>
+        <v>533</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>325</v>
+        <v>534</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>326</v>
+        <v>535</v>
       </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -3900,13 +5995,13 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>327</v>
+        <v>536</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>319</v>
+        <v>528</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>328</v>
+        <v>537</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>3</v>
@@ -3921,16 +6016,16 @@
         <v>2003</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>329</v>
+        <v>538</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>329</v>
+        <v>538</v>
       </c>
       <c r="J24" s="1" t="n">
         <v>89682579728</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>330</v>
+        <v>539</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>9</v>
@@ -3938,7 +6033,7 @@
       <c r="M24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N24" s="13" t="s">
+      <c r="N24" s="14" t="s">
         <v>75</v>
       </c>
       <c r="O24" s="7"/>
@@ -3947,14 +6042,14 @@
       <c r="R24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>332</v>
+      <c r="A25" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>541</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>333</v>
+        <v>542</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>3</v>
@@ -3968,65 +6063,65 @@
       <c r="G25" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="H25" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>336</v>
+      <c r="H25" s="21" t="s">
+        <v>543</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>545</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="L25" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="L25" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M25" s="19" t="s">
+      <c r="M25" s="21" t="s">
         <v>25</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="O25" s="12"/>
+        <v>547</v>
+      </c>
+      <c r="O25" s="13"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="21" t="n">
+      <c r="A26" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="23" t="n">
         <v>15</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="21" t="n">
+      <c r="G26" s="23" t="n">
         <v>1999</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>341</v>
+        <v>550</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>342</v>
+        <v>550</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>551</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>343</v>
+        <v>552</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>9</v>
@@ -4034,26 +6129,26 @@
       <c r="M26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N26" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="O26" s="12"/>
+      <c r="N26" s="31" t="s">
+        <v>553</v>
+      </c>
+      <c r="O26" s="13"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>345</v>
+        <v>554</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>346</v>
+        <v>555</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>347</v>
+        <v>556</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>348</v>
+        <v>557</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>9</v>
@@ -4065,16 +6160,16 @@
         <v>1999</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>349</v>
+        <v>558</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>350</v>
+        <v>559</v>
       </c>
       <c r="J27" s="1" t="n">
         <v>82324203556</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>351</v>
+        <v>560</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>114</v>
@@ -4083,7 +6178,7 @@
         <v>66</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>246</v>
+        <v>457</v>
       </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
@@ -4091,14 +6186,14 @@
       <c r="R27" s="7"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
-        <v>352</v>
+      <c r="A28" s="14" t="s">
+        <v>561</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>353</v>
+        <v>562</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>354</v>
+        <v>563</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>3</v>
@@ -4112,44 +6207,44 @@
       <c r="G28" s="2" t="n">
         <v>1992</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>355</v>
+      <c r="H28" s="14" t="s">
+        <v>564</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="K28" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="L28" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="L28" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="M28" s="13" t="s">
+      <c r="M28" s="14" t="s">
         <v>25</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="O28" s="12"/>
+        <v>520</v>
+      </c>
+      <c r="O28" s="13"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>358</v>
+        <v>567</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>359</v>
+        <v>568</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>360</v>
+        <v>569</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>361</v>
+        <v>204</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>13</v>
@@ -4161,16 +6256,16 @@
         <v>2003</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>362</v>
+        <v>570</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>363</v>
+        <v>571</v>
       </c>
       <c r="J29" s="1" t="n">
         <v>81390886513</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>364</v>
+        <v>572</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>9</v>
@@ -4178,71 +6273,71 @@
       <c r="M29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N29" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="O29" s="26"/>
+      <c r="N29" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="O29" s="32"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="21" t="n">
+      <c r="A30" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>574</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="F30" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="G30" s="21" t="n">
+      <c r="F30" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="G30" s="23" t="n">
         <v>1997</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="N30" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="O30" s="24"/>
+      <c r="H30" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="N30" s="31" t="s">
+        <v>581</v>
+      </c>
+      <c r="O30" s="34"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>374</v>
+        <v>582</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>375</v>
+        <v>583</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>376</v>
+        <v>584</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>3</v>
@@ -4257,16 +6352,16 @@
         <v>2001</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>377</v>
+        <v>585</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>377</v>
+        <v>585</v>
       </c>
       <c r="J31" s="1" t="n">
         <v>85742268145</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>378</v>
+        <v>586</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>9</v>
@@ -4275,7 +6370,7 @@
         <v>66</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>379</v>
+        <v>587</v>
       </c>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
@@ -4284,13 +6379,13 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>380</v>
+        <v>588</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>381</v>
+        <v>589</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>382</v>
+        <v>590</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>3</v>
@@ -4305,16 +6400,16 @@
         <v>2003</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>383</v>
+        <v>591</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>384</v>
+        <v>592</v>
       </c>
       <c r="J32" s="1" t="n">
         <v>85641641488</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>385</v>
+        <v>593</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>9</v>
@@ -4322,95 +6417,95 @@
       <c r="M32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N32" s="13" t="s">
+      <c r="N32" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="O32" s="26"/>
+      <c r="O32" s="32"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>387</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>388</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="16" t="n">
+      <c r="A33" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>595</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="G33" s="16" t="n">
+      <c r="F33" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="G33" s="17" t="n">
         <v>2001</v>
       </c>
-      <c r="H33" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="I33" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="J33" s="17" t="n">
+      <c r="H33" s="18" t="s">
+        <v>597</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>597</v>
+      </c>
+      <c r="J33" s="18" t="n">
         <v>87734239109</v>
       </c>
-      <c r="K33" s="17" t="s">
-        <v>390</v>
-      </c>
-      <c r="L33" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="M33" s="17" t="s">
+      <c r="K33" s="18" t="s">
+        <v>598</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="M33" s="18" t="s">
         <v>66</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="O33" s="12"/>
+        <v>600</v>
+      </c>
+      <c r="O33" s="13"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="21" t="n">
+      <c r="A34" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="F34" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="G34" s="21" t="n">
+      <c r="F34" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="G34" s="23" t="n">
         <v>2000</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>396</v>
+        <v>604</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>396</v>
+        <v>604</v>
       </c>
       <c r="J34" s="9" t="n">
         <v>87739464284</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>397</v>
+        <v>605</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>17</v>
@@ -4421,20 +6516,20 @@
       <c r="N34" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="O34" s="12"/>
+      <c r="O34" s="13"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>398</v>
+        <v>606</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>399</v>
+        <v>607</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>400</v>
+        <v>608</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>125</v>
@@ -4443,22 +6538,22 @@
         <v>27</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>202</v>
+        <v>347</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>1994</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>401</v>
+        <v>609</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>402</v>
+        <v>610</v>
       </c>
       <c r="J35" s="1" t="n">
         <v>8995751345</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>403</v>
+        <v>611</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>17</v>
@@ -4467,7 +6562,7 @@
         <v>10</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>404</v>
+        <v>612</v>
       </c>
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
@@ -4476,13 +6571,13 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>406</v>
+        <v>613</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>614</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>407</v>
+        <v>615</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>3</v>
@@ -4497,16 +6592,16 @@
         <v>2000</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>408</v>
+        <v>616</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>409</v>
+        <v>617</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>410</v>
+        <v>618</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>114</v>
@@ -4515,22 +6610,22 @@
         <v>25</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
+        <v>619</v>
+      </c>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>413</v>
+        <v>620</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>621</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>414</v>
+        <v>622</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>3</v>
@@ -4539,27 +6634,27 @@
         <v>2</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>2000</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>415</v>
+        <v>623</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>288</v>
+        <v>498</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>416</v>
+        <v>624</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="L37" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="L37" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M37" s="13" t="s">
+      <c r="M37" s="14" t="s">
         <v>25</v>
       </c>
       <c r="N37" s="11" t="s">
@@ -4572,13 +6667,13 @@
     </row>
     <row r="38" customFormat="false" ht="166" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>418</v>
+        <v>626</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>419</v>
+        <v>627</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>420</v>
+        <v>628</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>3</v>
@@ -4592,17 +6687,17 @@
       <c r="G38" s="2" t="n">
         <v>2002</v>
       </c>
-      <c r="H38" s="19" t="s">
-        <v>421</v>
+      <c r="H38" s="21" t="s">
+        <v>629</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>422</v>
+        <v>630</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>423</v>
+        <v>631</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>424</v>
+        <v>632</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>9</v>
@@ -4611,7 +6706,7 @@
         <v>10</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>425</v>
+        <v>633</v>
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
@@ -4619,14 +6714,14 @@
       <c r="R38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>427</v>
+      <c r="A39" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>635</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>428</v>
+        <v>636</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>3</v>
@@ -4635,13 +6730,13 @@
         <v>8</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>202</v>
+        <v>347</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>1996</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>429</v>
+        <v>637</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>3</v>
@@ -4650,7 +6745,7 @@
         <v>895361751755</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>430</v>
+        <v>638</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>17</v>
@@ -4658,7 +6753,7 @@
       <c r="M39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N39" s="13" t="s">
+      <c r="N39" s="14" t="s">
         <v>75</v>
       </c>
       <c r="O39" s="7"/>
@@ -4668,37 +6763,37 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>431</v>
+        <v>639</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>432</v>
+        <v>640</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>433</v>
+        <v>641</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>434</v>
+        <v>642</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>17</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>202</v>
+        <v>347</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>2000</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>435</v>
+        <v>643</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>435</v>
+        <v>643</v>
       </c>
       <c r="J40" s="1" t="n">
         <v>81230936912</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>436</v>
+        <v>644</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>9</v>
@@ -4707,22 +6802,22 @@
         <v>25</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
+        <v>645</v>
+      </c>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>438</v>
+        <v>646</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>439</v>
+        <v>647</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>440</v>
+        <v>648</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>3</v>
@@ -4731,22 +6826,22 @@
         <v>26</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>271</v>
+        <v>174</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>1998</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>441</v>
+        <v>649</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>442</v>
+        <v>650</v>
       </c>
       <c r="J41" s="1" t="n">
         <v>89526225300</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>443</v>
+        <v>651</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>17</v>
@@ -4754,8 +6849,8 @@
       <c r="M41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N41" s="13" t="s">
-        <v>311</v>
+      <c r="N41" s="14" t="s">
+        <v>520</v>
       </c>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
@@ -4764,13 +6859,13 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>444</v>
+        <v>652</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>445</v>
+        <v>653</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>446</v>
+        <v>654</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>3</v>
@@ -4785,23 +6880,23 @@
         <v>1999</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>447</v>
+        <v>655</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>447</v>
+        <v>655</v>
       </c>
       <c r="J42" s="1" t="n">
         <v>8882555681</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>448</v>
+        <v>656</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>449</v>
+        <v>657</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>450</v>
+        <v>658</v>
       </c>
       <c r="O42" s="7"/>
       <c r="P42" s="7"/>
@@ -4809,17 +6904,17 @@
       <c r="R42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="26.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>452</v>
+      <c r="A43" s="21" t="s">
+        <v>659</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>660</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>453</v>
+        <v>661</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>454</v>
+        <v>662</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>28</v>
@@ -4831,16 +6926,16 @@
         <v>1999</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>455</v>
+        <v>663</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>456</v>
+        <v>664</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>457</v>
+        <v>665</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>458</v>
+        <v>666</v>
       </c>
       <c r="L43" s="11" t="s">
         <v>17</v>
@@ -4849,7 +6944,7 @@
         <v>25</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>246</v>
+        <v>457</v>
       </c>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
